--- a/medicine/Psychotrope/Gers_(IGP)/Gers_(IGP).xlsx
+++ b/medicine/Psychotrope/Gers_(IGP)/Gers_(IGP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le gers, anciennement appelé Vin de Pays du Gers de 1968 à 2009, est un vin français d'indication géographique protégée régionale (le nouveau nom des vins de pays) produit sur l'ensemble du vignoble du département du Gers.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le décret du 13 septembre 1968 donna naissance aux vins de pays en les distinguant des vins de table et en y ajoutant obligatoirement le nom du département, d'où l'apparition du « vin de pays du Gers »[1]. 
-Actuellement, seuls peuvent prétendre à l’Indication géographique protégée « Gers », les vins initialement reconnus par le décret de 1968[2]. Le Gers possède le label européen IGP qui remplace le label vin de pays depuis 2009[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le décret du 13 septembre 1968 donna naissance aux vins de pays en les distinguant des vins de table et en y ajoutant obligatoirement le nom du département, d'où l'apparition du « vin de pays du Gers ». 
+Actuellement, seuls peuvent prétendre à l’Indication géographique protégée « Gers », les vins initialement reconnus par le décret de 1968. Le Gers possède le label européen IGP qui remplace le label vin de pays depuis 2009.
 </t>
         </is>
       </c>
@@ -546,11 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géologie et orographie
-Ce terroir viticole est constitué de sols argilo-calcaires, sables, galets, argiles et calcaires grèseux[3]. Le relief est formé de collines arrondies à l’ouest et de vallées creusées dans des bancs calcaires à l’est[2].
-On distingue trois terroirs : « celui de la « Ténarèze » (au centre et au nord), les sols y sont à dominante argilo-calcaire ; plus au sud et à l’est, dans la zone du Haut-Armagnac, les vignes s’épanouissent sur des graves et des peyrusquets ; enfin, plus à l’ouest, vers les Landes argileuses, voire sablonneuses, dans le terroir du Bas-Armagnac »[4]. 
-Climat
-Son vignoble bénéficie d'un climat tempéré-océanique et semi-continental[3]. Ce climat est caractérisé par des étés chauds, des automnes doux et ensoleillés, il est de type océanique. Seules quelques influences méditerranéennes sont sensibles au sud et à l’est[4].
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir viticole est constitué de sols argilo-calcaires, sables, galets, argiles et calcaires grèseux. Le relief est formé de collines arrondies à l’ouest et de vallées creusées dans des bancs calcaires à l’est.
+On distingue trois terroirs : « celui de la « Ténarèze » (au centre et au nord), les sols y sont à dominante argilo-calcaire ; plus au sud et à l’est, dans la zone du Haut-Armagnac, les vignes s’épanouissent sur des graves et des peyrusquets ; enfin, plus à l’ouest, vers les Landes argileuses, voire sablonneuses, dans le terroir du Bas-Armagnac ». 
 </t>
         </is>
       </c>
@@ -576,19 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vignoble</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-Le Gers (IGP) est un label viticole dont les vins sont produits dans le vignoble du Sud-ouest[3]. La zone géographique de ce vin s’étend sur le département du Gers[2].
-Encépagement
-Les cépages utilisés sont régionaux avec quelques exceptions dont le chardonnay et la syrah[3].
-Blancs : Gros manseng, Ugni blanc, Colombard, Arrufiac, Baroque, Petit Courbu, Mauzac[4].
-Rouges : Courbu noir, Jurançon noir, Manseng noir, Tannat, Cabernet franc, Cabernet sauvignon, Côt, Merlot[4].
-Pratiques culturales
-Depuis 1973, un décret sur les rendements les limite à 100 hl/ha[5].
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son vignoble bénéficie d'un climat tempéré-océanique et semi-continental. Ce climat est caractérisé par des étés chauds, des automnes doux et ensoleillés, il est de type océanique. Seules quelques influences méditerranéennes sont sensibles au sud et à l’est.
 </t>
         </is>
       </c>
@@ -614,32 +630,324 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gers (IGP) est un label viticole dont les vins sont produits dans le vignoble du Sud-ouest. La zone géographique de ce vin s’étend sur le département du Gers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages utilisés sont régionaux avec quelques exceptions dont le chardonnay et la syrah.
+Blancs : Gros manseng, Ugni blanc, Colombard, Arrufiac, Baroque, Petit Courbu, Mauzac.
+Rouges : Courbu noir, Jurançon noir, Manseng noir, Tannat, Cabernet franc, Cabernet sauvignon, Côt, Merlot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pratiques culturales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1973, un décret sur les rendements les limite à 100 hl/ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vinification
-Cette IGP se décline dans les trois couleurs rouge, blanc et rosé[3].
-Les progrès techniques (vendange à la maturité recherchée, techniques visant à éviter l’oxydation du moût) permettent une bonne conservation des arômes[2].
-Types de vin
-Les vins blancs représentent 98 % de la production, les vins rouges et rosés atteignent 800 hectolitres. Tous ces vins sont très aromatiques avec des notes fruitées et florales. Il est à noter que les vins moelleux présentent des arômes plus évolués de fruits mûrs[2].
-Vins et terroirs
-La zone de la Ténarèze donne des vins rouges charpentés, gras et très aromatiques, celle du Haut-Armagnac, des vins blancs équilibrés et fins enfin celle du Bas-Armagnac, des vins blancs aux arômes fruités marqués par de nuances de fleurs[4].
-Gastronomie
-Le gers blanc se présente dans une robe jaune pâle et aux reflets verts. Il a un nez fruité et délicat. La bouche est vive et légère. Ce vin s'apprécie sur des fruits de mer[3].
-Le gers moelleux, possède une belle robe jaune or, son nez est marqué par les fruits confits et des notes miellées. Ce vin, léger et friand, s'accorde avec un foie gras[3].
-Le gers rouge à la robe grenant, dégage au nez des fruits rouges. Il est à boire sur des charcuteries[3].
-Le gers rosé, avec sa robe saumon, son nez marqué par les fruits rouges, a une bouche désaltérante et fraîche. Il accompagne les apéritifs, les pizzas, etc.[3].
-Économie
-Structure des exploitations
-La production est assurée par trois caves coopératives et deux négociants vinificateurs. Quelques caves particulières élaborent des vins du Gers depuis 2005[2].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette IGP se décline dans les trois couleurs rouge, blanc et rosé.
+Les progrès techniques (vendange à la maturité recherchée, techniques visant à éviter l’oxydation du moût) permettent une bonne conservation des arômes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins blancs représentent 98 % de la production, les vins rouges et rosés atteignent 800 hectolitres. Tous ces vins sont très aromatiques avec des notes fruitées et florales. Il est à noter que les vins moelleux présentent des arômes plus évolués de fruits mûrs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vins et terroirs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone de la Ténarèze donne des vins rouges charpentés, gras et très aromatiques, celle du Haut-Armagnac, des vins blancs équilibrés et fins enfin celle du Bas-Armagnac, des vins blancs aux arômes fruités marqués par de nuances de fleurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gers blanc se présente dans une robe jaune pâle et aux reflets verts. Il a un nez fruité et délicat. La bouche est vive et légère. Ce vin s'apprécie sur des fruits de mer.
+Le gers moelleux, possède une belle robe jaune or, son nez est marqué par les fruits confits et des notes miellées. Ce vin, léger et friand, s'accorde avec un foie gras.
+Le gers rouge à la robe grenant, dégage au nez des fruits rouges. Il est à boire sur des charcuteries.
+Le gers rosé, avec sa robe saumon, son nez marqué par les fruits rouges, a une bouche désaltérante et fraîche. Il accompagne les apéritifs, les pizzas, etc..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production est assurée par trois caves coopératives et deux négociants vinificateurs. Quelques caves particulières élaborent des vins du Gers depuis 2005.
 			Cave à Saint-Mont
 			Cave à Plaisance
-Commercialisation
-La production a atteint un potentiel commercial annuel de 50 000 hectolitres environ[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gers_(IGP)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production a atteint un potentiel commercial annuel de 50 000 hectolitres environ.
 L’export vers le nord de l’Europe est important. Les marchés nord américains et asiatiques se
-développent[2].
+développent.
 </t>
         </is>
       </c>
